--- a/hardware/blast/rev_a/blast_bom.xlsx
+++ b/hardware/blast/rev_a/blast_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>Note</t>
   </si>
@@ -103,6 +103,66 @@
     <t>490-6269-1-ND</t>
   </si>
   <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>490-6197-1-ND</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C4, C5</t>
+  </si>
+  <si>
+    <t>490-1303-1-ND</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>490-5419-1-ND</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>445-1260-1-ND</t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>445-1264-1-ND</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C9, C10</t>
+  </si>
+  <si>
+    <t>445-4952-1-ND</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -130,66 +190,6 @@
     <t>445-5947-1-ND</t>
   </si>
   <si>
-    <t>12pF</t>
-  </si>
-  <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
-    <t>490-6197-1-ND</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>C4, C5</t>
-  </si>
-  <si>
-    <t>490-1303-1-ND</t>
-  </si>
-  <si>
-    <t>2.2nF</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>490-5419-1-ND</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>445-1260-1-ND</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>445-1264-1-ND</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C9, C10</t>
-  </si>
-  <si>
-    <t>445-4952-1-ND</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
     <t>BLUE</t>
   </si>
   <si>
@@ -220,15 +220,6 @@
     <t>Header on the impulse EPIC-esque board.</t>
   </si>
   <si>
-    <t>TC2030-JLINK-NL</t>
-  </si>
-  <si>
-    <t>TC2030-IDC-NL</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
@@ -286,6 +277,45 @@
     <t>RHM470CECT-ND</t>
   </si>
   <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>RHM4.7KCECT-ND</t>
+  </si>
+  <si>
+    <t>R4, R5</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R6, R7</t>
+  </si>
+  <si>
+    <t>RHM10KCECT-ND</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>RHM12.0KCDCT-ND</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>RHM1.0MCECT-ND</t>
+  </si>
+  <si>
     <t>4.7M</t>
   </si>
   <si>
@@ -293,45 +323,6 @@
   </si>
   <si>
     <t>541-4.7MJCT-ND</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RHM4.7KCECT-ND</t>
-  </si>
-  <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R6, R7</t>
-  </si>
-  <si>
-    <t>RHM10KCECT-ND</t>
-  </si>
-  <si>
-    <t>12k</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>RHM12.0KCDCT-ND</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>RHM1.0MCECT-ND</t>
   </si>
   <si>
     <t>NRF51822QF</t>
@@ -529,10 +520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -658,7 +649,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>27</v>
@@ -681,7 +672,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>30</v>
@@ -726,11 +717,14 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>22</v>
@@ -739,21 +733,21 @@
         <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>22</v>
@@ -762,21 +756,21 @@
         <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>22</v>
@@ -785,24 +779,24 @@
         <v>23</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>22</v>
@@ -811,13 +805,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>22</v>
@@ -834,21 +828,21 @@
         <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>22</v>
@@ -857,24 +851,21 @@
         <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>22</v>
@@ -883,13 +874,13 @@
         <v>23</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,13 +934,16 @@
         <v>66</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,19 +951,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,160 +971,163 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>470</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>470</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="B22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="H22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="G23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>97</v>
@@ -1144,16 +1141,16 @@
         <v>98</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>100</v>
@@ -1167,19 +1164,22 @@
         <v>101</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,129 +1187,103 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G29" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
